--- a/pred_ohlcv/54/2019-10-18 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-18 LBA ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>12.1</v>
       </c>
       <c r="F2" t="n">
-        <v>3110</v>
+        <v>34233.7196</v>
       </c>
       <c r="G2" t="n">
-        <v>12.06000000000001</v>
+        <v>12.05833333333335</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>12.1</v>
       </c>
       <c r="F3" t="n">
-        <v>13110</v>
+        <v>3110</v>
       </c>
       <c r="G3" t="n">
-        <v>12.06166666666668</v>
+        <v>12.06000000000001</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>12.1</v>
       </c>
       <c r="F4" t="n">
-        <v>3110</v>
+        <v>13110</v>
       </c>
       <c r="G4" t="n">
-        <v>12.06333333333335</v>
+        <v>12.06166666666668</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>12.1</v>
       </c>
       <c r="F5" t="n">
-        <v>328.1895</v>
+        <v>3110</v>
       </c>
       <c r="G5" t="n">
-        <v>12.06500000000002</v>
+        <v>12.06333333333335</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>12.1</v>
       </c>
       <c r="F6" t="n">
-        <v>2043.6286</v>
+        <v>328.1895</v>
       </c>
       <c r="G6" t="n">
-        <v>12.06333333333335</v>
+        <v>12.06500000000002</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>12.1</v>
       </c>
       <c r="F7" t="n">
-        <v>32104.5068</v>
+        <v>2043.6286</v>
       </c>
       <c r="G7" t="n">
-        <v>12.06166666666668</v>
+        <v>12.06333333333335</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>32104.5068</v>
       </c>
       <c r="G8" t="n">
         <v>12.06166666666668</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>12.2</v>
       </c>
       <c r="F9" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G9" t="n">
         <v>12.06166666666668</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>12.2</v>
       </c>
       <c r="F10" t="n">
-        <v>14800</v>
+        <v>30000</v>
       </c>
       <c r="G10" t="n">
         <v>12.06166666666668</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>12.2</v>
       </c>
       <c r="F11" t="n">
-        <v>50000</v>
+        <v>14800</v>
       </c>
       <c r="G11" t="n">
         <v>12.06166666666668</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F12" t="n">
-        <v>247908.6178</v>
+        <v>50000</v>
       </c>
       <c r="G12" t="n">
-        <v>12.06333333333335</v>
+        <v>12.06166666666668</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F13" t="n">
-        <v>25.3225</v>
+        <v>247908.6178</v>
       </c>
       <c r="G13" t="n">
-        <v>12.06500000000001</v>
+        <v>12.06333333333335</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C14" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D14" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E14" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F14" t="n">
-        <v>18833.4044</v>
+        <v>25.3225</v>
       </c>
       <c r="G14" t="n">
-        <v>12.06333333333335</v>
+        <v>12.06500000000001</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C15" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D15" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F15" t="n">
-        <v>9421</v>
+        <v>18833.4044</v>
       </c>
       <c r="G15" t="n">
-        <v>12.06500000000001</v>
+        <v>12.06333333333335</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C16" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D16" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E16" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F16" t="n">
-        <v>38949</v>
+        <v>9421</v>
       </c>
       <c r="G16" t="n">
         <v>12.06500000000001</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -804,18 +854,21 @@
         <v>12.2</v>
       </c>
       <c r="D17" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E17" t="n">
         <v>12.2</v>
       </c>
       <c r="F17" t="n">
-        <v>83135.2647</v>
+        <v>38949</v>
       </c>
       <c r="G17" t="n">
-        <v>12.06666666666668</v>
+        <v>12.06500000000001</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C18" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D18" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E18" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>83135.2647</v>
       </c>
       <c r="G18" t="n">
-        <v>12.07000000000001</v>
+        <v>12.06666666666668</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F19" t="n">
-        <v>2885.03</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>12.07500000000001</v>
+        <v>12.07000000000001</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>12.3</v>
       </c>
       <c r="F20" t="n">
-        <v>41322.3139</v>
+        <v>2885.03</v>
       </c>
       <c r="G20" t="n">
-        <v>12.07833333333334</v>
+        <v>12.07500000000001</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F21" t="n">
-        <v>213406.3828</v>
+        <v>41322.3139</v>
       </c>
       <c r="G21" t="n">
-        <v>12.08333333333334</v>
+        <v>12.07833333333334</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>213406.3828</v>
       </c>
       <c r="G22" t="n">
-        <v>12.09000000000001</v>
+        <v>12.08333333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>12.5</v>
       </c>
       <c r="F23" t="n">
-        <v>50200</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>12.09666666666667</v>
+        <v>12.09000000000001</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>12.5</v>
       </c>
       <c r="F24" t="n">
-        <v>9035.440000000001</v>
+        <v>50200</v>
       </c>
       <c r="G24" t="n">
-        <v>12.10333333333334</v>
+        <v>12.09666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F25" t="n">
-        <v>6698.8709</v>
+        <v>9035.440000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>12.10833333333334</v>
+        <v>12.10333333333334</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E26" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F26" t="n">
-        <v>73748</v>
+        <v>6698.8709</v>
       </c>
       <c r="G26" t="n">
-        <v>12.11166666666667</v>
+        <v>12.10833333333334</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,10 +1138,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C27" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D27" t="n">
         <v>12.3</v>
@@ -1070,12 +1150,15 @@
         <v>12.2</v>
       </c>
       <c r="F27" t="n">
-        <v>49160</v>
+        <v>73748</v>
       </c>
       <c r="G27" t="n">
-        <v>12.11333333333334</v>
+        <v>12.11166666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>12.3</v>
       </c>
       <c r="C28" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D28" t="n">
         <v>12.3</v>
       </c>
       <c r="E28" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F28" t="n">
-        <v>24580</v>
+        <v>49160</v>
       </c>
       <c r="G28" t="n">
-        <v>12.11833333333334</v>
+        <v>12.11333333333334</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>12.3</v>
       </c>
       <c r="F29" t="n">
-        <v>49160</v>
+        <v>24580</v>
       </c>
       <c r="G29" t="n">
-        <v>12.12500000000001</v>
+        <v>12.11833333333334</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>12.3</v>
       </c>
       <c r="F30" t="n">
-        <v>61450</v>
+        <v>49160</v>
       </c>
       <c r="G30" t="n">
-        <v>12.13</v>
+        <v>12.12500000000001</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>12.3</v>
       </c>
       <c r="F31" t="n">
-        <v>8372.313899999999</v>
+        <v>61450</v>
       </c>
       <c r="G31" t="n">
-        <v>12.135</v>
+        <v>12.13</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>12.3</v>
       </c>
       <c r="C32" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D32" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E32" t="n">
         <v>12.3</v>
       </c>
       <c r="F32" t="n">
-        <v>49662.3139</v>
+        <v>8372.313899999999</v>
       </c>
       <c r="G32" t="n">
-        <v>12.13833333333334</v>
+        <v>12.135</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C33" t="n">
         <v>12.4</v>
@@ -1223,15 +1321,18 @@
         <v>12.4</v>
       </c>
       <c r="E33" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F33" t="n">
-        <v>1900</v>
+        <v>49662.3139</v>
       </c>
       <c r="G33" t="n">
-        <v>12.14333333333334</v>
+        <v>12.13833333333334</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>12.4</v>
       </c>
       <c r="C34" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D34" t="n">
         <v>12.4</v>
       </c>
       <c r="E34" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F34" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="G34" t="n">
-        <v>12.14666666666667</v>
+        <v>12.14333333333334</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C35" t="n">
         <v>12.3</v>
       </c>
       <c r="D35" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E35" t="n">
         <v>12.3</v>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>2600</v>
       </c>
       <c r="G35" t="n">
-        <v>12.15</v>
+        <v>12.14666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>12.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G36" t="n">
-        <v>12.155</v>
+        <v>12.15</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>12.3</v>
       </c>
       <c r="F37" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="G37" t="n">
-        <v>12.16</v>
+        <v>12.155</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1350,18 +1463,21 @@
         <v>12.3</v>
       </c>
       <c r="D38" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E38" t="n">
         <v>12.3</v>
       </c>
       <c r="F38" t="n">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="G38" t="n">
-        <v>12.165</v>
+        <v>12.16</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1376,18 +1492,21 @@
         <v>12.3</v>
       </c>
       <c r="D39" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E39" t="n">
         <v>12.3</v>
       </c>
       <c r="F39" t="n">
-        <v>7400</v>
+        <v>2400</v>
       </c>
       <c r="G39" t="n">
-        <v>12.17</v>
+        <v>12.165</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>12.3</v>
       </c>
       <c r="F40" t="n">
-        <v>5950</v>
+        <v>7400</v>
       </c>
       <c r="G40" t="n">
-        <v>12.17666666666666</v>
+        <v>12.17</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>12.3</v>
       </c>
       <c r="F41" t="n">
-        <v>52950</v>
+        <v>5950</v>
       </c>
       <c r="G41" t="n">
-        <v>12.18333333333333</v>
+        <v>12.17666666666666</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C42" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D42" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E42" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>52950</v>
       </c>
       <c r="G42" t="n">
-        <v>12.19166666666666</v>
+        <v>12.18333333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>12.4</v>
       </c>
       <c r="F43" t="n">
-        <v>550</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>12.2</v>
+        <v>12.19166666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1503,21 +1634,24 @@
         <v>12.4</v>
       </c>
       <c r="C44" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D44" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E44" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F44" t="n">
-        <v>76950</v>
+        <v>550</v>
       </c>
       <c r="G44" t="n">
-        <v>12.20499999999999</v>
+        <v>12.2</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>12.4</v>
       </c>
       <c r="C45" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D45" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E45" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F45" t="n">
-        <v>166.0073</v>
+        <v>76950</v>
       </c>
       <c r="G45" t="n">
-        <v>12.21166666666666</v>
+        <v>12.20499999999999</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>12.4</v>
       </c>
       <c r="F46" t="n">
-        <v>450</v>
+        <v>166.0073</v>
       </c>
       <c r="G46" t="n">
-        <v>12.21833333333333</v>
+        <v>12.21166666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>12.4</v>
       </c>
       <c r="F47" t="n">
-        <v>29600</v>
+        <v>450</v>
       </c>
       <c r="G47" t="n">
-        <v>12.22666666666666</v>
+        <v>12.21833333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>12.4</v>
       </c>
       <c r="C48" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D48" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E48" t="n">
         <v>12.4</v>
       </c>
       <c r="F48" t="n">
-        <v>4500</v>
+        <v>29600</v>
       </c>
       <c r="G48" t="n">
-        <v>12.23666666666666</v>
+        <v>12.22666666666666</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>12.4</v>
       </c>
       <c r="F49" t="n">
-        <v>36800</v>
+        <v>4500</v>
       </c>
       <c r="G49" t="n">
-        <v>12.24666666666666</v>
+        <v>12.23666666666666</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>12.4</v>
       </c>
       <c r="C50" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="D50" t="n">
         <v>12.5</v>
       </c>
       <c r="E50" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F50" t="n">
-        <v>19200</v>
+        <v>36800</v>
       </c>
       <c r="G50" t="n">
-        <v>12.25</v>
+        <v>12.24666666666666</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,21 +1837,24 @@
         <v>12.4</v>
       </c>
       <c r="C51" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D51" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E51" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F51" t="n">
-        <v>360</v>
+        <v>19200</v>
       </c>
       <c r="G51" t="n">
-        <v>12.25666666666666</v>
+        <v>12.25</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>12.4</v>
       </c>
       <c r="F52" t="n">
-        <v>3750</v>
+        <v>360</v>
       </c>
       <c r="G52" t="n">
-        <v>12.26333333333333</v>
+        <v>12.25666666666666</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>12.4</v>
       </c>
       <c r="C53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E53" t="n">
         <v>12.4</v>
       </c>
       <c r="F53" t="n">
-        <v>70900</v>
+        <v>3750</v>
       </c>
       <c r="G53" t="n">
-        <v>12.27166666666666</v>
+        <v>12.26333333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C54" t="n">
         <v>12.5</v>
@@ -1769,15 +1930,18 @@
         <v>12.5</v>
       </c>
       <c r="E54" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F54" t="n">
-        <v>269434.0544</v>
+        <v>70900</v>
       </c>
       <c r="G54" t="n">
-        <v>12.28</v>
+        <v>12.27166666666666</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>12.5</v>
       </c>
       <c r="C55" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D55" t="n">
         <v>12.5</v>
       </c>
       <c r="E55" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F55" t="n">
-        <v>180800</v>
+        <v>269434.0544</v>
       </c>
       <c r="G55" t="n">
-        <v>12.28666666666666</v>
+        <v>12.28</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>12.5</v>
       </c>
       <c r="C56" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D56" t="n">
         <v>12.5</v>
       </c>
       <c r="E56" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F56" t="n">
-        <v>80007.3285</v>
+        <v>180800</v>
       </c>
       <c r="G56" t="n">
-        <v>12.29499999999999</v>
+        <v>12.28666666666666</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C57" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D57" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E57" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F57" t="n">
-        <v>3500</v>
+        <v>80007.3285</v>
       </c>
       <c r="G57" t="n">
-        <v>12.305</v>
+        <v>12.29499999999999</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>12.6</v>
       </c>
       <c r="F58" t="n">
-        <v>15906.9047</v>
+        <v>3500</v>
       </c>
       <c r="G58" t="n">
-        <v>12.315</v>
+        <v>12.305</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C59" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D59" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E59" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F59" t="n">
-        <v>402172.356</v>
+        <v>15906.9047</v>
       </c>
       <c r="G59" t="n">
-        <v>12.325</v>
+        <v>12.315</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="C60" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D60" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E60" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F60" t="n">
-        <v>1450</v>
+        <v>402172.356</v>
       </c>
       <c r="G60" t="n">
-        <v>12.33833333333333</v>
+        <v>12.325</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>12.9</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>1450</v>
       </c>
       <c r="G61" t="n">
-        <v>12.35166666666666</v>
+        <v>12.33833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>12.9</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D62" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E62" t="n">
         <v>12.9</v>
       </c>
       <c r="F62" t="n">
-        <v>412804.1085</v>
+        <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>12.36666666666666</v>
+        <v>12.35166666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,21 +2185,24 @@
         <v>12.9</v>
       </c>
       <c r="C63" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
         <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F63" t="n">
-        <v>428157.2433</v>
+        <v>412804.1085</v>
       </c>
       <c r="G63" t="n">
-        <v>12.37999999999999</v>
+        <v>12.36666666666666</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2026,19 +2217,22 @@
         <v>12.9</v>
       </c>
       <c r="D64" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E64" t="n">
         <v>12.7</v>
       </c>
       <c r="F64" t="n">
-        <v>108987.8014</v>
+        <v>428157.2433</v>
       </c>
       <c r="G64" t="n">
-        <v>12.39333333333333</v>
+        <v>12.37999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2049,21 +2243,24 @@
         <v>12.9</v>
       </c>
       <c r="C65" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D65" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E65" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F65" t="n">
-        <v>332844.5663</v>
+        <v>108987.8014</v>
       </c>
       <c r="G65" t="n">
-        <v>12.40833333333333</v>
+        <v>12.39333333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C66" t="n">
         <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E66" t="n">
         <v>12.9</v>
       </c>
       <c r="F66" t="n">
-        <v>21649.1388</v>
+        <v>332844.5663</v>
       </c>
       <c r="G66" t="n">
-        <v>12.42333333333332</v>
+        <v>12.40833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C67" t="n">
         <v>13</v>
       </c>
-      <c r="C67" t="n">
-        <v>12.9</v>
-      </c>
       <c r="D67" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E67" t="n">
         <v>12.9</v>
       </c>
       <c r="F67" t="n">
-        <v>22309.1742</v>
+        <v>21649.1388</v>
       </c>
       <c r="G67" t="n">
-        <v>12.43666666666666</v>
+        <v>12.42333333333332</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D68" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E68" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F68" t="n">
-        <v>33421.2311</v>
+        <v>22309.1742</v>
       </c>
       <c r="G68" t="n">
-        <v>12.45333333333332</v>
+        <v>12.43666666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>13</v>
+      </c>
+      <c r="C69" t="n">
         <v>13.2</v>
       </c>
-      <c r="C69" t="n">
-        <v>13.3</v>
-      </c>
       <c r="D69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E69" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F69" t="n">
-        <v>101718.9473</v>
+        <v>33421.2311</v>
       </c>
       <c r="G69" t="n">
-        <v>12.47166666666666</v>
+        <v>12.45333333333332</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,25 +2385,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="C70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E70" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F70" t="n">
-        <v>4051.175</v>
+        <v>101718.9473</v>
       </c>
       <c r="G70" t="n">
-        <v>12.49166666666665</v>
+        <v>12.47166666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2205,22 +2417,25 @@
         <v>13.4</v>
       </c>
       <c r="C71" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D71" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E71" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F71" t="n">
-        <v>325224.886</v>
+        <v>4051.175</v>
       </c>
       <c r="G71" t="n">
-        <v>12.51499999999999</v>
+        <v>12.49166666666665</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C72" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D72" t="n">
         <v>13.6</v>
       </c>
       <c r="E72" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F72" t="n">
-        <v>117173.5118</v>
+        <v>325224.886</v>
       </c>
       <c r="G72" t="n">
-        <v>12.53499999999999</v>
+        <v>12.51499999999999</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>13.6</v>
       </c>
       <c r="C73" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D73" t="n">
         <v>13.6</v>
       </c>
       <c r="E73" t="n">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="F73" t="n">
-        <v>106548.0577</v>
+        <v>117173.5118</v>
       </c>
       <c r="G73" t="n">
-        <v>12.55166666666666</v>
+        <v>12.53499999999999</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C74" t="n">
         <v>13.4</v>
       </c>
-      <c r="C74" t="n">
-        <v>13.3</v>
-      </c>
       <c r="D74" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E74" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F74" t="n">
-        <v>1372147.0943</v>
+        <v>106548.0577</v>
       </c>
       <c r="G74" t="n">
-        <v>12.56999999999999</v>
+        <v>12.55166666666666</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>13.4</v>
       </c>
       <c r="C75" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D75" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="E75" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F75" t="n">
-        <v>31596.2088</v>
+        <v>1372147.0943</v>
       </c>
       <c r="G75" t="n">
-        <v>12.58833333333332</v>
+        <v>12.56999999999999</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>13.4</v>
       </c>
       <c r="C76" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D76" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E76" t="n">
         <v>13.3</v>
       </c>
       <c r="F76" t="n">
-        <v>243008.7156</v>
+        <v>31596.2088</v>
       </c>
       <c r="G76" t="n">
-        <v>12.60666666666665</v>
+        <v>12.58833333333332</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>13.4</v>
       </c>
       <c r="C77" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D77" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E77" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F77" t="n">
-        <v>184655.42</v>
+        <v>243008.7156</v>
       </c>
       <c r="G77" t="n">
-        <v>12.62833333333332</v>
+        <v>12.60666666666665</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2617,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C78" t="n">
         <v>13.5</v>
@@ -2396,12 +2629,15 @@
         <v>13.4</v>
       </c>
       <c r="F78" t="n">
-        <v>26994.313</v>
+        <v>184655.42</v>
       </c>
       <c r="G78" t="n">
-        <v>12.64666666666665</v>
+        <v>12.62833333333332</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>13.5</v>
       </c>
       <c r="C79" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D79" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E79" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F79" t="n">
-        <v>234235.5035413044</v>
+        <v>26994.313</v>
       </c>
       <c r="G79" t="n">
-        <v>12.66999999999999</v>
+        <v>12.64666666666665</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>13.5</v>
       </c>
       <c r="C80" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="D80" t="n">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="E80" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F80" t="n">
-        <v>163470.7461</v>
+        <v>234235.5035413044</v>
       </c>
       <c r="G80" t="n">
-        <v>12.68833333333332</v>
+        <v>12.66999999999999</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C81" t="n">
         <v>13.4</v>
       </c>
       <c r="D81" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="E81" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F81" t="n">
-        <v>264483.3675673913</v>
+        <v>163470.7461</v>
       </c>
       <c r="G81" t="n">
-        <v>12.70499999999999</v>
+        <v>12.68833333333332</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C82" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D82" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E82" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F82" t="n">
-        <v>95385.24400000001</v>
+        <v>264483.3675673913</v>
       </c>
       <c r="G82" t="n">
-        <v>12.72333333333332</v>
+        <v>12.70499999999999</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C83" t="n">
         <v>13.6</v>
       </c>
       <c r="D83" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E83" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F83" t="n">
-        <v>21215.5394</v>
+        <v>95385.24400000001</v>
       </c>
       <c r="G83" t="n">
-        <v>12.74166666666665</v>
+        <v>12.72333333333332</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>13.6</v>
       </c>
       <c r="C84" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D84" t="n">
         <v>13.6</v>
       </c>
       <c r="E84" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F84" t="n">
-        <v>59673.3433</v>
+        <v>21215.5394</v>
       </c>
       <c r="G84" t="n">
-        <v>12.75833333333332</v>
+        <v>12.74166666666665</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C85" t="n">
         <v>13.5</v>
       </c>
       <c r="D85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E85" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F85" t="n">
-        <v>40712.3951</v>
+        <v>59673.3433</v>
       </c>
       <c r="G85" t="n">
-        <v>12.77666666666665</v>
+        <v>12.75833333333332</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E86" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F86" t="n">
-        <v>49773.065</v>
+        <v>40712.3951</v>
       </c>
       <c r="G86" t="n">
-        <v>12.79833333333332</v>
+        <v>12.77666666666665</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C87" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D87" t="n">
         <v>13.6</v>
       </c>
       <c r="E87" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F87" t="n">
-        <v>142187.092</v>
+        <v>49773.065</v>
       </c>
       <c r="G87" t="n">
-        <v>12.81999999999999</v>
+        <v>12.79833333333332</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C88" t="n">
         <v>13.5</v>
       </c>
       <c r="D88" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E88" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F88" t="n">
-        <v>65233.3288</v>
+        <v>142187.092</v>
       </c>
       <c r="G88" t="n">
-        <v>12.83999999999999</v>
+        <v>12.81999999999999</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2676,18 +2942,21 @@
         <v>13.5</v>
       </c>
       <c r="D89" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E89" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F89" t="n">
-        <v>6138.381</v>
+        <v>65233.3288</v>
       </c>
       <c r="G89" t="n">
-        <v>12.85999999999999</v>
+        <v>12.83999999999999</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2702,18 +2971,21 @@
         <v>13.5</v>
       </c>
       <c r="D90" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E90" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F90" t="n">
-        <v>43106.6361</v>
+        <v>6138.381</v>
       </c>
       <c r="G90" t="n">
-        <v>12.87999999999999</v>
+        <v>12.85999999999999</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,21 +2997,24 @@
         <v>13.5</v>
       </c>
       <c r="C91" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D91" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="E91" t="n">
         <v>13.5</v>
       </c>
       <c r="F91" t="n">
-        <v>804498.3001</v>
+        <v>43106.6361</v>
       </c>
       <c r="G91" t="n">
-        <v>12.90166666666666</v>
+        <v>12.87999999999999</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C92" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D92" t="n">
         <v>13.9</v>
       </c>
       <c r="E92" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F92" t="n">
-        <v>64481.2609</v>
+        <v>804498.3001</v>
       </c>
       <c r="G92" t="n">
-        <v>12.92499999999999</v>
+        <v>12.90166666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C93" t="n">
         <v>13.8</v>
       </c>
-      <c r="C93" t="n">
-        <v>13.7</v>
-      </c>
       <c r="D93" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="E93" t="n">
         <v>13.6</v>
       </c>
       <c r="F93" t="n">
-        <v>488479.4757890617</v>
+        <v>64481.2609</v>
       </c>
       <c r="G93" t="n">
-        <v>12.94666666666666</v>
+        <v>12.92499999999999</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C94" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D94" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="E94" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F94" t="n">
-        <v>86104.54577053488</v>
+        <v>488479.4757890617</v>
       </c>
       <c r="G94" t="n">
-        <v>12.97166666666666</v>
+        <v>12.94666666666666</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>13.7</v>
       </c>
       <c r="C95" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D95" t="n">
         <v>13.9</v>
       </c>
       <c r="E95" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F95" t="n">
-        <v>69724.56526404442</v>
+        <v>86104.54577053488</v>
       </c>
       <c r="G95" t="n">
-        <v>12.99833333333333</v>
+        <v>12.97166666666666</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C96" t="n">
         <v>13.9</v>
-      </c>
-      <c r="C96" t="n">
-        <v>13.7</v>
       </c>
       <c r="D96" t="n">
         <v>13.9</v>
       </c>
       <c r="E96" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F96" t="n">
-        <v>37299.91126008758</v>
+        <v>69724.56526404442</v>
       </c>
       <c r="G96" t="n">
-        <v>13.02166666666666</v>
+        <v>12.99833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="C97" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D97" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F97" t="n">
-        <v>64603.958</v>
+        <v>37299.91126008758</v>
       </c>
       <c r="G97" t="n">
-        <v>13.04333333333333</v>
+        <v>13.02166666666666</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C98" t="n">
         <v>13.6</v>
       </c>
       <c r="D98" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E98" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F98" t="n">
-        <v>174055.8764</v>
+        <v>64603.958</v>
       </c>
       <c r="G98" t="n">
-        <v>13.065</v>
+        <v>13.04333333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C99" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D99" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E99" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F99" t="n">
-        <v>189296.725</v>
+        <v>174055.8764</v>
       </c>
       <c r="G99" t="n">
-        <v>13.09166666666667</v>
+        <v>13.065</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>13.7</v>
       </c>
       <c r="C100" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D100" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E100" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F100" t="n">
-        <v>74408.38740000001</v>
+        <v>189296.725</v>
       </c>
       <c r="G100" t="n">
-        <v>13.11666666666667</v>
+        <v>13.09166666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,10 +3284,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C101" t="n">
         <v>13.8</v>
-      </c>
-      <c r="C101" t="n">
-        <v>13.7</v>
       </c>
       <c r="D101" t="n">
         <v>13.8</v>
@@ -2994,12 +3296,15 @@
         <v>13.5</v>
       </c>
       <c r="F101" t="n">
-        <v>253926.5924</v>
+        <v>74408.38740000001</v>
       </c>
       <c r="G101" t="n">
-        <v>13.14</v>
+        <v>13.11666666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C102" t="n">
         <v>13.7</v>
       </c>
       <c r="D102" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E102" t="n">
         <v>13.5</v>
       </c>
       <c r="F102" t="n">
-        <v>92237.7935</v>
+        <v>253926.5924</v>
       </c>
       <c r="G102" t="n">
-        <v>13.16166666666667</v>
+        <v>13.14</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3037,21 +3345,24 @@
         <v>13.7</v>
       </c>
       <c r="C103" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D103" t="n">
         <v>13.7</v>
       </c>
       <c r="E103" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F103" t="n">
-        <v>31536.54782352941</v>
+        <v>92237.7935</v>
       </c>
       <c r="G103" t="n">
-        <v>13.18166666666667</v>
+        <v>13.16166666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,10 +3371,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C104" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D104" t="n">
         <v>13.7</v>
@@ -3072,12 +3383,15 @@
         <v>13.6</v>
       </c>
       <c r="F104" t="n">
-        <v>19379.67507647059</v>
+        <v>31536.54782352941</v>
       </c>
       <c r="G104" t="n">
-        <v>13.205</v>
+        <v>13.18166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>13.6</v>
       </c>
       <c r="C105" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D105" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E105" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F105" t="n">
-        <v>38936.9632</v>
+        <v>19379.67507647059</v>
       </c>
       <c r="G105" t="n">
-        <v>13.22333333333334</v>
+        <v>13.205</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C106" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D106" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E106" t="n">
         <v>13.5</v>
       </c>
       <c r="F106" t="n">
-        <v>77476.4391</v>
+        <v>38936.9632</v>
       </c>
       <c r="G106" t="n">
-        <v>13.245</v>
+        <v>13.22333333333334</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C107" t="n">
         <v>13.7</v>
       </c>
       <c r="D107" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E107" t="n">
         <v>13.5</v>
       </c>
       <c r="F107" t="n">
-        <v>121683.0617</v>
+        <v>77476.4391</v>
       </c>
       <c r="G107" t="n">
-        <v>13.26666666666667</v>
+        <v>13.245</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C108" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D108" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E108" t="n">
         <v>13.5</v>
       </c>
       <c r="F108" t="n">
-        <v>18382.1984</v>
+        <v>121683.0617</v>
       </c>
       <c r="G108" t="n">
-        <v>13.28500000000001</v>
+        <v>13.26666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,7 +3519,7 @@
         <v>13.6</v>
       </c>
       <c r="C109" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D109" t="n">
         <v>13.7</v>
@@ -3202,12 +3528,15 @@
         <v>13.5</v>
       </c>
       <c r="F109" t="n">
-        <v>145438.7925</v>
+        <v>18382.1984</v>
       </c>
       <c r="G109" t="n">
-        <v>13.30500000000001</v>
+        <v>13.28500000000001</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C110" t="n">
         <v>13.7</v>
@@ -3228,12 +3557,15 @@
         <v>13.5</v>
       </c>
       <c r="F110" t="n">
-        <v>28472.1818</v>
+        <v>145438.7925</v>
       </c>
       <c r="G110" t="n">
-        <v>13.33000000000001</v>
+        <v>13.30500000000001</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3251,15 +3583,18 @@
         <v>13.7</v>
       </c>
       <c r="E111" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F111" t="n">
-        <v>17256.6256</v>
+        <v>28472.1818</v>
       </c>
       <c r="G111" t="n">
-        <v>13.35166666666668</v>
+        <v>13.33000000000001</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3277,15 +3612,18 @@
         <v>13.7</v>
       </c>
       <c r="E112" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F112" t="n">
-        <v>4100</v>
+        <v>17256.6256</v>
       </c>
       <c r="G112" t="n">
-        <v>13.37333333333334</v>
+        <v>13.35166666666668</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C113" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D113" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E113" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F113" t="n">
-        <v>4662.9148</v>
+        <v>4100</v>
       </c>
       <c r="G113" t="n">
-        <v>13.39166666666668</v>
+        <v>13.37333333333334</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>13.6</v>
       </c>
       <c r="C114" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D114" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E114" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F114" t="n">
-        <v>168413.7289</v>
+        <v>4662.9148</v>
       </c>
       <c r="G114" t="n">
-        <v>13.41166666666668</v>
+        <v>13.39166666666668</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,7 +3690,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C115" t="n">
         <v>13.7</v>
@@ -3355,15 +3699,18 @@
         <v>13.7</v>
       </c>
       <c r="E115" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F115" t="n">
-        <v>28612.1861</v>
+        <v>168413.7289</v>
       </c>
       <c r="G115" t="n">
-        <v>13.43333333333334</v>
+        <v>13.41166666666668</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>13.7</v>
       </c>
       <c r="C116" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D116" t="n">
         <v>13.7</v>
       </c>
       <c r="E116" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F116" t="n">
-        <v>1492.2752</v>
+        <v>28612.1861</v>
       </c>
       <c r="G116" t="n">
-        <v>13.45000000000001</v>
+        <v>13.43333333333334</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C117" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D117" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E117" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F117" t="n">
-        <v>1233.75</v>
+        <v>1492.2752</v>
       </c>
       <c r="G117" t="n">
-        <v>13.46666666666668</v>
+        <v>13.45000000000001</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F118" t="n">
-        <v>3327.3941</v>
+        <v>1233.75</v>
       </c>
       <c r="G118" t="n">
-        <v>13.48166666666668</v>
+        <v>13.46666666666668</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>13.5</v>
       </c>
       <c r="C119" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D119" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E119" t="n">
         <v>13.5</v>
       </c>
       <c r="F119" t="n">
-        <v>67103.14109999999</v>
+        <v>3327.3941</v>
       </c>
       <c r="G119" t="n">
-        <v>13.49833333333334</v>
+        <v>13.48166666666668</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C120" t="n">
         <v>13.7</v>
@@ -3485,15 +3844,18 @@
         <v>13.7</v>
       </c>
       <c r="E120" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F120" t="n">
-        <v>3900.0729</v>
+        <v>67103.14109999999</v>
       </c>
       <c r="G120" t="n">
-        <v>13.51166666666668</v>
+        <v>13.49833333333334</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3511,15 +3873,18 @@
         <v>13.7</v>
       </c>
       <c r="E121" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F121" t="n">
-        <v>60472.3772</v>
+        <v>3900.0729</v>
       </c>
       <c r="G121" t="n">
-        <v>13.52500000000001</v>
+        <v>13.51166666666668</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C122" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D122" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E122" t="n">
         <v>13.6</v>
       </c>
       <c r="F122" t="n">
-        <v>40686.1522</v>
+        <v>60472.3772</v>
       </c>
       <c r="G122" t="n">
-        <v>13.53500000000001</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>13.6</v>
       </c>
       <c r="F123" t="n">
-        <v>400</v>
+        <v>40686.1522</v>
       </c>
       <c r="G123" t="n">
-        <v>13.54666666666668</v>
+        <v>13.53500000000001</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,21 +3954,24 @@
         <v>13.6</v>
       </c>
       <c r="C124" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D124" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E124" t="n">
         <v>13.6</v>
       </c>
       <c r="F124" t="n">
-        <v>21285.6934</v>
+        <v>400</v>
       </c>
       <c r="G124" t="n">
-        <v>13.56000000000001</v>
+        <v>13.54666666666668</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3980,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C125" t="n">
         <v>13.7</v>
@@ -3618,12 +3992,15 @@
         <v>13.6</v>
       </c>
       <c r="F125" t="n">
-        <v>4748.3918</v>
+        <v>21285.6934</v>
       </c>
       <c r="G125" t="n">
-        <v>13.57166666666668</v>
+        <v>13.56000000000001</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3641,15 +4018,18 @@
         <v>13.7</v>
       </c>
       <c r="E126" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F126" t="n">
-        <v>68359.0145</v>
+        <v>4748.3918</v>
       </c>
       <c r="G126" t="n">
-        <v>13.58333333333335</v>
+        <v>13.57166666666668</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,7 +4038,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C127" t="n">
         <v>13.7</v>
@@ -3667,15 +4047,18 @@
         <v>13.7</v>
       </c>
       <c r="E127" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F127" t="n">
-        <v>11161.5583</v>
+        <v>68359.0145</v>
       </c>
       <c r="G127" t="n">
-        <v>13.59666666666669</v>
+        <v>13.58333333333335</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +4067,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C128" t="n">
         <v>13.7</v>
@@ -3693,15 +4076,18 @@
         <v>13.7</v>
       </c>
       <c r="E128" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F128" t="n">
-        <v>24890.5109</v>
+        <v>11161.5583</v>
       </c>
       <c r="G128" t="n">
-        <v>13.60500000000002</v>
+        <v>13.59666666666669</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C129" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D129" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E129" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F129" t="n">
-        <v>56538.997</v>
+        <v>24890.5109</v>
       </c>
       <c r="G129" t="n">
-        <v>13.60833333333335</v>
+        <v>13.60500000000002</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3739,21 +4128,24 @@
         <v>13.6</v>
       </c>
       <c r="C130" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D130" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E130" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F130" t="n">
-        <v>135939.5331</v>
+        <v>56538.997</v>
       </c>
       <c r="G130" t="n">
-        <v>13.61333333333335</v>
+        <v>13.60833333333335</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>13.6</v>
       </c>
       <c r="C131" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D131" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E131" t="n">
         <v>13.6</v>
       </c>
       <c r="F131" t="n">
-        <v>60087.0528</v>
+        <v>135939.5331</v>
       </c>
       <c r="G131" t="n">
-        <v>13.61666666666668</v>
+        <v>13.61333333333335</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +4183,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C132" t="n">
         <v>13.8</v>
@@ -3797,15 +4192,18 @@
         <v>13.8</v>
       </c>
       <c r="E132" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F132" t="n">
-        <v>23323.2608</v>
+        <v>60087.0528</v>
       </c>
       <c r="G132" t="n">
-        <v>13.62166666666669</v>
+        <v>13.61666666666668</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>13.8</v>
       </c>
       <c r="F133" t="n">
-        <v>126265.6077</v>
+        <v>23323.2608</v>
       </c>
       <c r="G133" t="n">
-        <v>13.62833333333335</v>
+        <v>13.62166666666669</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>13.8</v>
       </c>
       <c r="F134" t="n">
-        <v>10225.2643</v>
+        <v>126265.6077</v>
       </c>
       <c r="G134" t="n">
-        <v>13.63666666666668</v>
+        <v>13.62833333333335</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>13.8</v>
       </c>
       <c r="F135" t="n">
-        <v>133873.041</v>
+        <v>10225.2643</v>
       </c>
       <c r="G135" t="n">
-        <v>13.64333333333335</v>
+        <v>13.63666666666668</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>13.8</v>
       </c>
       <c r="F136" t="n">
-        <v>4798.913</v>
+        <v>133873.041</v>
       </c>
       <c r="G136" t="n">
-        <v>13.65166666666668</v>
+        <v>13.64333333333335</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>13.8</v>
       </c>
       <c r="F137" t="n">
-        <v>2154.9869</v>
+        <v>4798.913</v>
       </c>
       <c r="G137" t="n">
-        <v>13.65666666666668</v>
+        <v>13.65166666666668</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>13.8</v>
       </c>
       <c r="F138" t="n">
-        <v>63124.6234</v>
+        <v>2154.9869</v>
       </c>
       <c r="G138" t="n">
-        <v>13.66166666666668</v>
+        <v>13.65666666666668</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C139" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D139" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E139" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F139" t="n">
-        <v>111889.4542</v>
+        <v>63124.6234</v>
       </c>
       <c r="G139" t="n">
-        <v>13.66000000000002</v>
+        <v>13.66166666666668</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3999,21 +4418,24 @@
         <v>13.7</v>
       </c>
       <c r="C140" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D140" t="n">
         <v>13.7</v>
       </c>
       <c r="E140" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F140" t="n">
-        <v>93003.9457</v>
+        <v>111889.4542</v>
       </c>
       <c r="G140" t="n">
-        <v>13.66500000000002</v>
+        <v>13.66000000000002</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4025,21 +4447,24 @@
         <v>13.7</v>
       </c>
       <c r="C141" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D141" t="n">
         <v>13.7</v>
       </c>
       <c r="E141" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F141" t="n">
-        <v>141034.7252</v>
+        <v>93003.9457</v>
       </c>
       <c r="G141" t="n">
-        <v>13.66833333333335</v>
+        <v>13.66500000000002</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C142" t="n">
         <v>13.6</v>
       </c>
       <c r="D142" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E142" t="n">
         <v>13.6</v>
       </c>
       <c r="F142" t="n">
-        <v>40000</v>
+        <v>141034.7252</v>
       </c>
       <c r="G142" t="n">
         <v>13.66833333333335</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4077,21 +4505,24 @@
         <v>13.6</v>
       </c>
       <c r="C143" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D143" t="n">
         <v>13.6</v>
       </c>
       <c r="E143" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F143" t="n">
-        <v>21945.0735</v>
+        <v>40000</v>
       </c>
       <c r="G143" t="n">
-        <v>13.66666666666668</v>
+        <v>13.66833333333335</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C144" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D144" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E144" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F144" t="n">
-        <v>197881.5877</v>
+        <v>21945.0735</v>
       </c>
       <c r="G144" t="n">
-        <v>13.66500000000002</v>
+        <v>13.66666666666668</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C145" t="n">
         <v>13.4</v>
       </c>
-      <c r="C145" t="n">
-        <v>13.5</v>
-      </c>
       <c r="D145" t="n">
         <v>13.5</v>
       </c>
       <c r="E145" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F145" t="n">
-        <v>106970.2176</v>
+        <v>197881.5877</v>
       </c>
       <c r="G145" t="n">
         <v>13.66500000000002</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C146" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D146" t="n">
         <v>13.5</v>
       </c>
       <c r="E146" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F146" t="n">
-        <v>120775.051</v>
+        <v>106970.2176</v>
       </c>
       <c r="G146" t="n">
-        <v>13.66166666666668</v>
+        <v>13.66500000000002</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C147" t="n">
         <v>13.4</v>
       </c>
       <c r="D147" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E147" t="n">
         <v>13.4</v>
       </c>
       <c r="F147" t="n">
-        <v>22184.2329</v>
+        <v>120775.051</v>
       </c>
       <c r="G147" t="n">
-        <v>13.66000000000002</v>
+        <v>13.66166666666668</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C148" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D148" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E148" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F148" t="n">
-        <v>44739.2574</v>
+        <v>22184.2329</v>
       </c>
       <c r="G148" t="n">
-        <v>13.65666666666668</v>
+        <v>13.66000000000002</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C149" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D149" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E149" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F149" t="n">
-        <v>1010</v>
+        <v>44739.2574</v>
       </c>
       <c r="G149" t="n">
-        <v>13.65500000000001</v>
+        <v>13.65666666666668</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C150" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D150" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E150" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F150" t="n">
-        <v>78940.1562</v>
+        <v>1010</v>
       </c>
       <c r="G150" t="n">
-        <v>13.65166666666668</v>
+        <v>13.65500000000001</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>13.3</v>
       </c>
       <c r="F151" t="n">
-        <v>171724.9201</v>
+        <v>78940.1562</v>
       </c>
       <c r="G151" t="n">
-        <v>13.64666666666668</v>
+        <v>13.65166666666668</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C152" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D152" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E152" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F152" t="n">
-        <v>53086.7348</v>
+        <v>171724.9201</v>
       </c>
       <c r="G152" t="n">
-        <v>13.64000000000001</v>
+        <v>13.64666666666668</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C153" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D153" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E153" t="n">
         <v>13.2</v>
       </c>
       <c r="F153" t="n">
-        <v>33722.1239</v>
+        <v>53086.7348</v>
       </c>
       <c r="G153" t="n">
-        <v>13.63166666666668</v>
+        <v>13.64000000000001</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4363,21 +4824,24 @@
         <v>13.3</v>
       </c>
       <c r="C154" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D154" t="n">
         <v>13.3</v>
       </c>
       <c r="E154" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F154" t="n">
-        <v>78263.2539</v>
+        <v>33722.1239</v>
       </c>
       <c r="G154" t="n">
-        <v>13.62333333333335</v>
+        <v>13.63166666666668</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>13.3</v>
       </c>
       <c r="F155" t="n">
-        <v>30000</v>
+        <v>78263.2539</v>
       </c>
       <c r="G155" t="n">
-        <v>13.61333333333335</v>
+        <v>13.62333333333335</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>13.3</v>
       </c>
       <c r="F156" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G156" t="n">
-        <v>13.60666666666668</v>
+        <v>13.61333333333335</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>13.3</v>
       </c>
       <c r="C157" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D157" t="n">
         <v>13.3</v>
       </c>
       <c r="E157" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F157" t="n">
-        <v>49335.6584</v>
+        <v>10000</v>
       </c>
       <c r="G157" t="n">
-        <v>13.60000000000001</v>
+        <v>13.60666666666668</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,7 +4937,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C158" t="n">
         <v>13.2</v>
@@ -4476,12 +4949,15 @@
         <v>13.2</v>
       </c>
       <c r="F158" t="n">
-        <v>8173.5345</v>
+        <v>49335.6584</v>
       </c>
       <c r="G158" t="n">
-        <v>13.59333333333334</v>
+        <v>13.60000000000001</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,7 +4966,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C159" t="n">
         <v>13.2</v>
@@ -4502,12 +4978,15 @@
         <v>13.2</v>
       </c>
       <c r="F159" t="n">
-        <v>10406.6375</v>
+        <v>8173.5345</v>
       </c>
       <c r="G159" t="n">
-        <v>13.58166666666668</v>
+        <v>13.59333333333334</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>13.2</v>
       </c>
       <c r="F160" t="n">
-        <v>33276.9347</v>
+        <v>10406.6375</v>
       </c>
       <c r="G160" t="n">
-        <v>13.57166666666668</v>
+        <v>13.58166666666668</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C161" t="n">
         <v>13.2</v>
       </c>
       <c r="D161" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E161" t="n">
         <v>13.2</v>
       </c>
       <c r="F161" t="n">
-        <v>45077.4066</v>
+        <v>33276.9347</v>
       </c>
       <c r="G161" t="n">
-        <v>13.56333333333335</v>
+        <v>13.57166666666668</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>13.2</v>
       </c>
       <c r="F162" t="n">
-        <v>63458.1205</v>
+        <v>45077.4066</v>
       </c>
       <c r="G162" t="n">
-        <v>13.55500000000001</v>
+        <v>13.56333333333335</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>13.2</v>
       </c>
       <c r="F163" t="n">
-        <v>72796.1346</v>
+        <v>63458.1205</v>
       </c>
       <c r="G163" t="n">
-        <v>13.54833333333335</v>
+        <v>13.55500000000001</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,21 +5114,24 @@
         <v>13.2</v>
       </c>
       <c r="C164" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D164" t="n">
         <v>13.2</v>
       </c>
       <c r="E164" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F164" t="n">
-        <v>87851.7352</v>
+        <v>72796.1346</v>
       </c>
       <c r="G164" t="n">
-        <v>13.53833333333335</v>
+        <v>13.54833333333335</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C165" t="n">
         <v>13.1</v>
       </c>
-      <c r="C165" t="n">
-        <v>13</v>
-      </c>
       <c r="D165" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E165" t="n">
         <v>13.1</v>
       </c>
-      <c r="E165" t="n">
-        <v>13</v>
-      </c>
       <c r="F165" t="n">
-        <v>1679784.0124</v>
+        <v>87851.7352</v>
       </c>
       <c r="G165" t="n">
-        <v>13.53000000000001</v>
+        <v>13.53833333333335</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C166" t="n">
         <v>13</v>
       </c>
       <c r="D166" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
       </c>
       <c r="F166" t="n">
-        <v>24539.0096</v>
+        <v>1679784.0124</v>
       </c>
       <c r="G166" t="n">
-        <v>13.51833333333335</v>
+        <v>13.53000000000001</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>13</v>
       </c>
       <c r="F167" t="n">
-        <v>25691.1841</v>
+        <v>24539.0096</v>
       </c>
       <c r="G167" t="n">
-        <v>13.50666666666668</v>
+        <v>13.51833333333335</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>13</v>
       </c>
       <c r="F168" t="n">
-        <v>3483.7133</v>
+        <v>25691.1841</v>
       </c>
       <c r="G168" t="n">
-        <v>13.49666666666668</v>
+        <v>13.50666666666668</v>
       </c>
       <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C169" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D169" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E169" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F169" t="n">
-        <v>148111.9192</v>
+        <v>3483.7133</v>
       </c>
       <c r="G169" t="n">
-        <v>13.48666666666668</v>
+        <v>13.49666666666668</v>
       </c>
       <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>13.1</v>
       </c>
       <c r="F170" t="n">
-        <v>26830</v>
+        <v>148111.9192</v>
       </c>
       <c r="G170" t="n">
-        <v>13.47666666666668</v>
+        <v>13.48666666666668</v>
       </c>
       <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C171" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E171" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F171" t="n">
-        <v>35892.8622</v>
+        <v>26830</v>
       </c>
       <c r="G171" t="n">
-        <v>13.46500000000001</v>
+        <v>13.47666666666668</v>
       </c>
       <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4831,21 +5346,24 @@
         <v>13</v>
       </c>
       <c r="C172" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D172" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
       </c>
       <c r="F172" t="n">
-        <v>50000</v>
+        <v>35892.8622</v>
       </c>
       <c r="G172" t="n">
-        <v>13.45500000000001</v>
+        <v>13.46500000000001</v>
       </c>
       <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,7 +5372,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C173" t="n">
         <v>13.1</v>
@@ -4863,15 +5381,18 @@
         <v>13.1</v>
       </c>
       <c r="E173" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F173" t="n">
-        <v>2880</v>
+        <v>50000</v>
       </c>
       <c r="G173" t="n">
-        <v>13.44666666666668</v>
+        <v>13.45500000000001</v>
       </c>
       <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +5401,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C174" t="n">
         <v>13.1</v>
@@ -4889,15 +5410,18 @@
         <v>13.1</v>
       </c>
       <c r="E174" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F174" t="n">
-        <v>194495.1951</v>
+        <v>2880</v>
       </c>
       <c r="G174" t="n">
-        <v>13.43666666666668</v>
+        <v>13.44666666666668</v>
       </c>
       <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4909,21 +5433,24 @@
         <v>13</v>
       </c>
       <c r="C175" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D175" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E175" t="n">
         <v>13</v>
       </c>
-      <c r="E175" t="n">
-        <v>12.8</v>
-      </c>
       <c r="F175" t="n">
-        <v>196082.2526</v>
+        <v>194495.1951</v>
       </c>
       <c r="G175" t="n">
-        <v>13.42166666666668</v>
+        <v>13.43666666666668</v>
       </c>
       <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C176" t="n">
         <v>12.8</v>
       </c>
       <c r="D176" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E176" t="n">
         <v>12.8</v>
       </c>
       <c r="F176" t="n">
-        <v>17660</v>
+        <v>196082.2526</v>
       </c>
       <c r="G176" t="n">
-        <v>13.41000000000001</v>
+        <v>13.42166666666668</v>
       </c>
       <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,544 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C177" t="n">
         <v>12.8</v>
       </c>
       <c r="D177" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E177" t="n">
         <v>12.8</v>
       </c>
       <c r="F177" t="n">
-        <v>44482.8906</v>
+        <v>17660</v>
       </c>
       <c r="G177" t="n">
-        <v>13.39666666666667</v>
+        <v>13.41000000000001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C178" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D178" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E178" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F178" t="n">
-        <v>47661.7465</v>
-      </c>
-      <c r="G178" t="n">
-        <v>13.38500000000001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C179" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D179" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E179" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F179" t="n">
-        <v>70466.4127</v>
-      </c>
-      <c r="G179" t="n">
-        <v>13.37166666666667</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C180" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D180" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E180" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F180" t="n">
-        <v>7643.5723</v>
-      </c>
-      <c r="G180" t="n">
-        <v>13.35833333333334</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F181" t="n">
-        <v>21603.1695</v>
-      </c>
-      <c r="G181" t="n">
-        <v>13.34333333333334</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>13</v>
-      </c>
-      <c r="C182" t="n">
-        <v>13</v>
-      </c>
-      <c r="D182" t="n">
-        <v>13</v>
-      </c>
-      <c r="E182" t="n">
-        <v>13</v>
-      </c>
-      <c r="F182" t="n">
-        <v>8987.961499999999</v>
-      </c>
-      <c r="G182" t="n">
-        <v>13.33333333333334</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>13</v>
-      </c>
-      <c r="C183" t="n">
-        <v>13</v>
-      </c>
-      <c r="D183" t="n">
-        <v>13</v>
-      </c>
-      <c r="E183" t="n">
-        <v>13</v>
-      </c>
-      <c r="F183" t="n">
-        <v>8988</v>
-      </c>
-      <c r="G183" t="n">
-        <v>13.32333333333333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C184" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D184" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E184" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F184" t="n">
-        <v>59992.2809</v>
-      </c>
-      <c r="G184" t="n">
-        <v>13.30833333333333</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C185" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D185" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E185" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F185" t="n">
-        <v>8864</v>
-      </c>
-      <c r="G185" t="n">
-        <v>13.295</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C186" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D186" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E186" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F186" t="n">
-        <v>182.2526</v>
-      </c>
-      <c r="G186" t="n">
-        <v>13.28166666666666</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C187" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D187" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E187" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F187" t="n">
-        <v>22460</v>
-      </c>
-      <c r="G187" t="n">
-        <v>13.26833333333333</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C188" t="n">
-        <v>13</v>
-      </c>
-      <c r="D188" t="n">
-        <v>13</v>
-      </c>
-      <c r="E188" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F188" t="n">
-        <v>273666.8476</v>
-      </c>
-      <c r="G188" t="n">
-        <v>13.25666666666666</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>13</v>
-      </c>
-      <c r="C189" t="n">
-        <v>13</v>
-      </c>
-      <c r="D189" t="n">
-        <v>13</v>
-      </c>
-      <c r="E189" t="n">
-        <v>13</v>
-      </c>
-      <c r="F189" t="n">
-        <v>8386.233899999999</v>
-      </c>
-      <c r="G189" t="n">
-        <v>13.24833333333333</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>13</v>
-      </c>
-      <c r="C190" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D190" t="n">
-        <v>13</v>
-      </c>
-      <c r="E190" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F190" t="n">
-        <v>46701.5801</v>
-      </c>
-      <c r="G190" t="n">
-        <v>13.23499999999999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>13</v>
-      </c>
-      <c r="C191" t="n">
-        <v>13</v>
-      </c>
-      <c r="D191" t="n">
-        <v>13</v>
-      </c>
-      <c r="E191" t="n">
-        <v>13</v>
-      </c>
-      <c r="F191" t="n">
-        <v>13600</v>
-      </c>
-      <c r="G191" t="n">
-        <v>13.22166666666666</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C192" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D192" t="n">
-        <v>13</v>
-      </c>
-      <c r="E192" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F192" t="n">
-        <v>173450.7889</v>
-      </c>
-      <c r="G192" t="n">
-        <v>13.20666666666666</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C193" t="n">
-        <v>13</v>
-      </c>
-      <c r="D193" t="n">
-        <v>13</v>
-      </c>
-      <c r="E193" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F193" t="n">
-        <v>62585.5817</v>
-      </c>
-      <c r="G193" t="n">
-        <v>13.19333333333333</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C194" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D194" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E194" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F194" t="n">
-        <v>6240</v>
-      </c>
-      <c r="G194" t="n">
-        <v>13.17833333333333</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C195" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E195" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F195" t="n">
-        <v>36744.4823</v>
-      </c>
-      <c r="G195" t="n">
-        <v>13.16333333333333</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>13</v>
-      </c>
-      <c r="C196" t="n">
-        <v>13</v>
-      </c>
-      <c r="D196" t="n">
-        <v>13</v>
-      </c>
-      <c r="E196" t="n">
-        <v>13</v>
-      </c>
-      <c r="F196" t="n">
-        <v>10</v>
-      </c>
-      <c r="G196" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C197" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D197" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E197" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F197" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>13.135</v>
-      </c>
-      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
